--- a/data/Top10Pokemon.xlsx
+++ b/data/Top10Pokemon.xlsx
@@ -5,21 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Josue/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Josue/Desktop/PokemonGo-GroupProjectRepo/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2773C244-9846-4043-B385-242042DED6B7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{57C76E50-D506-9B4C-909F-30A26617CB63}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="440" windowWidth="25440" windowHeight="14540" xr2:uid="{69E47A10-3665-FF42-B0C3-DAB25633E2F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$11</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$2:$B$11</definedName>
-  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -161,14 +156,22 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Top 10 Tweeted Pokemon</a:t>
+              <a:t>Percentage</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of Top 10 Tweeted </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Pokemon</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -193,9 +196,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -473,9 +476,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -483,9 +484,9 @@
                     <a:solidFill>
                       <a:schemeClr val="lt1"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
@@ -639,16 +640,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -679,7 +680,10 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -1604,7 +1608,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
